--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_thalamus_control_by_struct.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_thalamus_control_by_struct.xlsx
@@ -465,15 +465,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.07581536307743808</v>
+        <v>-0.07378174364758917</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.116, -0.0359]</t>
+          <t>[-0.114, -0.0338]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0005351607169813902</v>
+        <v>0.0008007541118110403</v>
       </c>
     </row>
     <row r="3">
@@ -483,15 +483,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.01911176285567012</v>
+        <v>-0.02068997653083026</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.0579, 0.0197]</t>
+          <t>[-0.0596, 0.0182]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4168633933534313</v>
+        <v>0.3705757135671856</v>
       </c>
     </row>
     <row r="4">
@@ -501,15 +501,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008883009310500161</v>
+        <v>0.01311196126094428</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0301, 0.0479]</t>
+          <t>[-0.0266, 0.0528]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6545381262252816</v>
+        <v>0.5163004374605885</v>
       </c>
     </row>
     <row r="5">
@@ -519,15 +519,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1559390473845944</v>
+        <v>-0.1509825323611057</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.2, -0.112]</t>
+          <t>[-0.194, -0.108]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.924037300061748e-11</v>
+        <v>6.387364197542358e-11</v>
       </c>
     </row>
     <row r="6">
@@ -537,15 +537,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.06388105930161407</v>
+        <v>-0.06361837367335482</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.107, -0.0208]</t>
+          <t>[-0.107, -0.0205]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.006271906650400757</v>
+        <v>0.006557806794376614</v>
       </c>
     </row>
   </sheetData>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04526543165892551</v>
+        <v>-0.04562536764651734</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0804, -0.0101]</t>
+          <t>[-0.0807, -0.0105]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.01614659867747275</v>
+        <v>0.01819383400035612</v>
       </c>
     </row>
     <row r="3">
@@ -614,15 +614,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07124088711073034</v>
+        <v>-0.07160928516530168</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.111, -0.0314]</t>
+          <t>[-0.112, -0.0316]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.002114141143668072</v>
+        <v>0.001843729626254913</v>
       </c>
     </row>
     <row r="4">
@@ -632,15 +632,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05972804550910286</v>
+        <v>-0.0601138247161342</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0947, -0.0248]</t>
+          <t>[-0.0949, -0.0253]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.002114141143668072</v>
+        <v>0.001843729626254913</v>
       </c>
     </row>
     <row r="5">
@@ -650,15 +650,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0532104502298125</v>
+        <v>-0.04637717771031442</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0951, -0.0113]</t>
+          <t>[-0.0873, -0.00545]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.01614659867747275</v>
+        <v>0.03303382876857185</v>
       </c>
     </row>
     <row r="6">
@@ -668,15 +668,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01733063785526172</v>
+        <v>0.0169871020111323</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.0208, 0.0555]</t>
+          <t>[-0.0212, 0.0551]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3723658619849225</v>
+        <v>0.3820788425924155</v>
       </c>
     </row>
   </sheetData>
@@ -727,15 +727,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1292424953046559</v>
+        <v>0.1304809701794198</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.0906, 0.168]</t>
+          <t>[0.092, 0.169]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.365363460783813e-10</v>
+        <v>1.950313716982065e-10</v>
       </c>
     </row>
     <row r="3">
@@ -745,15 +745,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09002922342012228</v>
+        <v>0.08712012739560704</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.0396, 0.14]</t>
+          <t>[0.0368, 0.137]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.000613866310498093</v>
+        <v>0.0009085205717469352</v>
       </c>
     </row>
     <row r="4">
@@ -763,15 +763,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02489424322052172</v>
+        <v>0.02965745609809432</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0131, 0.0629]</t>
+          <t>[-0.00674, 0.0661]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1982515356377599</v>
+        <v>0.1100140199234383</v>
       </c>
     </row>
     <row r="5">
@@ -781,15 +781,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1981309097115176</v>
+        <v>0.1997663392966063</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.151, 0.245]</t>
+          <t>[0.15, 0.25]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.443511215355626e-15</v>
+        <v>1.944102172256208e-13</v>
       </c>
     </row>
     <row r="6">
@@ -799,15 +799,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1019149311752897</v>
+        <v>0.1007836484094115</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.054, 0.15]</t>
+          <t>[0.0528, 0.149]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.901978543145295e-05</v>
+        <v>7.223832502380951e-05</v>
       </c>
     </row>
   </sheetData>
@@ -858,15 +858,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0370021986396837</v>
+        <v>0.04303957847894724</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0493, 0.123]</t>
+          <t>[-0.0433, 0.129]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3997702489604099</v>
+        <v>0.3279150314051249</v>
       </c>
     </row>
     <row r="3">
@@ -876,15 +876,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.08251061779030859</v>
+        <v>-0.08804780464460647</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.161, -0.00376]</t>
+          <t>[-0.167, -0.00944]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.06677462616981361</v>
+        <v>0.07056296001654981</v>
       </c>
     </row>
     <row r="4">
@@ -894,15 +894,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06226194411665638</v>
+        <v>-0.04746799764054421</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.12, -0.00496]</t>
+          <t>[-0.105, 0.0103]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.06677462616981361</v>
+        <v>0.1779209608865499</v>
       </c>
     </row>
     <row r="5">
@@ -912,15 +912,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06101810655377825</v>
+        <v>0.05091021170458417</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0364, 0.158]</t>
+          <t>[-0.0461, 0.148]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2740202646617608</v>
+        <v>0.3279150314051249</v>
       </c>
     </row>
     <row r="6">
@@ -930,15 +930,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1525843696489649</v>
+        <v>-0.151749482742163</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.234, -0.0713]</t>
+          <t>[-0.233, -0.0705]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.001271268192766557</v>
+        <v>0.001345203379084357</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_thalamus_control_by_struct.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_thalamus_control_by_struct.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,33 +465,33 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.07378174364758917</v>
+        <v>-0.07386933717774298</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.114, -0.0338]</t>
+          <t>[-0.114, -0.034]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0008007541118110403</v>
+        <v>0.001124210855268038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t2lv_log</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02068997653083026</v>
+        <v>0.004643186264003878</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.0596, 0.0182]</t>
+          <t>[-0.0442, 0.0535]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3705757135671856</v>
+        <v>0.8522752615678567</v>
       </c>
     </row>
     <row r="4">
@@ -501,15 +501,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01311196126094428</v>
+        <v>0.01312347441174369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0266, 0.0528]</t>
+          <t>[-0.0264, 0.0527]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5163004374605885</v>
+        <v>0.6450335254821085</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1509825323611057</v>
+        <v>-0.1509685259984902</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.387364197542358e-11</v>
+        <v>3.054607379022523e-11</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.06361837367335482</v>
+        <v>-0.06351663347444342</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -545,7 +545,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.006557806794376614</v>
+        <v>0.007684294159490535</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>WMV</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1301399243857262</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[0.0455, 0.215]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00688095658390122</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>WBV</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.09710823384542402</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.0185, 0.213]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1595733688724402</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GMV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.02381918362551604</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.105, 0.0572]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6450335254821085</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,33 +650,33 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04562536764651734</v>
+        <v>-0.04591806979619354</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0807, -0.0105]</t>
+          <t>[-0.0809, -0.0109]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.01819383400035612</v>
+        <v>0.02684414894145047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t2lv_log</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07160928516530168</v>
+        <v>-0.09394911134602189</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.112, -0.0316]</t>
+          <t>[-0.134, -0.0543]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.001843729626254913</v>
+        <v>2.665733627843728e-05</v>
       </c>
     </row>
     <row r="4">
@@ -632,15 +686,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0601138247161342</v>
+        <v>-0.06002976385413628</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0949, -0.0253]</t>
+          <t>[-0.0947, -0.0253]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.001843729626254913</v>
+        <v>0.002799621803454864</v>
       </c>
     </row>
     <row r="5">
@@ -650,15 +704,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04637717771031442</v>
+        <v>-0.04685158331749271</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0873, -0.00545]</t>
+          <t>[-0.0877, -0.00597]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.03303382876857185</v>
+        <v>0.04936623888629579</v>
       </c>
     </row>
     <row r="6">
@@ -668,15 +722,69 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0169871020111323</v>
+        <v>0.01644050825996227</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.0212, 0.0551]</t>
+          <t>[-0.0217, 0.0546]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3820788425924155</v>
+        <v>0.4548739844331542</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>WMV</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.006245682498082897</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.0793, 0.0918]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8861917379262844</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>WBV</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.06103100382622932</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.179, 0.0567]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4127707661565839</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GMV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.05857335325680993</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.13, 0.0127]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1713125154729676</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,33 +835,33 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1304809701794198</v>
+        <v>0.1309243744639613</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.092, 0.169]</t>
+          <t>[0.0925, 0.169]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.950313716982065e-10</v>
+        <v>9.128823160766157e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t2lv_log</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08712012739560704</v>
+        <v>0.09107325778560563</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.0368, 0.137]</t>
+          <t>[0.0409, 0.141]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0009085205717469352</v>
+        <v>0.0007479212637030497</v>
       </c>
     </row>
     <row r="4">
@@ -763,15 +871,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02965745609809432</v>
+        <v>0.02953423200172034</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.00674, 0.0661]</t>
+          <t>[-0.00675, 0.0658]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1100140199234383</v>
+        <v>0.126442226310276</v>
       </c>
     </row>
     <row r="5">
@@ -781,7 +889,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1997663392966063</v>
+        <v>0.2000253628271643</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -789,7 +897,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.944102172256208e-13</v>
+        <v>4.404122832697458e-14</v>
       </c>
     </row>
     <row r="6">
@@ -799,15 +907,69 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1007836484094115</v>
+        <v>0.1010097495231816</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.0528, 0.149]</t>
+          <t>[0.0531, 0.149]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.223832502380951e-05</v>
+        <v>9.499461056512314e-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>WMV</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1560038511481446</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.253, -0.0587]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002693925124050654</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>WBV</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1331086538399551</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.269, 0.00251]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07252145281921486</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GMV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01395210662342783</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.0659, 0.0938]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.731929128434069</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,33 +1020,33 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04303957847894724</v>
+        <v>0.04282455649604596</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.0433, 0.129]</t>
+          <t>[-0.0432, 0.129]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3279150314051249</v>
+        <v>0.5271566153064446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t2lv_log</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.08804780464460647</v>
+        <v>-0.1568162457441097</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.167, -0.00944]</t>
+          <t>[-0.244, -0.0695]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.07056296001654981</v>
+        <v>0.001726240159293671</v>
       </c>
     </row>
     <row r="4">
@@ -894,15 +1056,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04746799764054421</v>
+        <v>-0.04743630003600445</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.105, 0.0103]</t>
+          <t>[-0.105, 0.0102]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1779209608865499</v>
+        <v>0.2838877077045092</v>
       </c>
     </row>
     <row r="5">
@@ -912,15 +1074,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05091021170458417</v>
+        <v>0.05096143963535027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0461, 0.148]</t>
+          <t>[-0.0459, 0.148]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3279150314051249</v>
+        <v>0.5271566153064446</v>
       </c>
     </row>
     <row r="6">
@@ -930,15 +1092,69 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.151749482742163</v>
+        <v>-0.1518445170581046</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.233, -0.0705]</t>
+          <t>[-0.233, -0.0708]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.001345203379084357</v>
+        <v>0.001726240159293671</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>WMV</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.03402816917532862</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.182, 0.114]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8585932244457645</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>WBV</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.03673464683574172</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.264, 0.19]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8585932244457645</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GMV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.00368878629692402</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.159, 0.151]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9628181178558426</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_thalamus_control_by_struct.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/combined_nuclei_thalamus_control_by_struct.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.001124210855268038</v>
+        <v>0.001686316282902057</v>
       </c>
     </row>
     <row r="3">
@@ -497,109 +497,73 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>WBV</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01312347441174369</v>
+        <v>0.09710823384542402</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0264, 0.0527]</t>
+          <t>[-0.0185, 0.213]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6450335254821085</v>
+        <v>0.1496000333179127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LV_log</t>
+          <t>WMV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1509685259984902</v>
+        <v>0.1301399243857262</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.194, -0.108]</t>
+          <t>[0.0455, 0.215]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.054607379022523e-11</v>
+        <v>0.007741076156888874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>thirdV_log</t>
+          <t>GMV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.06351663347444342</v>
+        <v>-0.02381918362551604</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.107, -0.0205]</t>
+          <t>[-0.105, 0.0572]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.007684294159490535</v>
+        <v>0.6772852017562139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WMV</t>
+          <t>cortical_thickness</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1301399243857262</v>
+        <v>0.05942417289559127</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.0455, 0.215]</t>
+          <t>[0.00274, 0.116]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.00688095658390122</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>WBV</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.09710823384542402</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.0185, 0.213]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1595733688724402</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>GMV</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.02381918362551604</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[-0.105, 0.0572]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6450335254821085</v>
+        <v>0.079781395767112</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +622,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.02684414894145047</v>
+        <v>0.03019966755913178</v>
       </c>
     </row>
     <row r="3">
@@ -676,115 +640,79 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.665733627843728e-05</v>
+        <v>1.999300220882796e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>WBV</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06002976385413628</v>
+        <v>-0.06103100382622932</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.0947, -0.0253]</t>
+          <t>[-0.179, 0.0567]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.002799621803454864</v>
+        <v>0.4643671119261569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LV_log</t>
+          <t>WMV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04685158331749271</v>
+        <v>0.006245682498082897</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0877, -0.00597]</t>
+          <t>[-0.0793, 0.0918]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.04936623888629579</v>
+        <v>0.8861917379262844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>thirdV_log</t>
+          <t>GMV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01644050825996227</v>
+        <v>-0.05857335325680993</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.0217, 0.0546]</t>
+          <t>[-0.13, 0.0127]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4548739844331542</v>
+        <v>0.2141406443412095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WMV</t>
+          <t>cortical_thickness</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006245682498082897</v>
+        <v>0.02138703727786274</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.0793, 0.0918]</t>
+          <t>[-0.0274, 0.0702]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8861917379262844</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>WBV</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.06103100382622932</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.179, 0.0567]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4127707661565839</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>GMV</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.05857335325680993</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[-0.13, 0.0127]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1713125154729676</v>
+        <v>0.4685584578986186</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,7 +771,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.128823160766157e-11</v>
+        <v>1.369323474114924e-10</v>
       </c>
     </row>
     <row r="3">
@@ -861,115 +789,79 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0007479212637030497</v>
+        <v>0.001121881895554575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>WBV</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02953423200172034</v>
+        <v>-0.1331086538399551</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.00675, 0.0658]</t>
+          <t>[-0.269, 0.00251]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.126442226310276</v>
+        <v>0.06526930753729338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LV_log</t>
+          <t>WMV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2000253628271643</v>
+        <v>-0.1560038511481446</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.15, 0.25]</t>
+          <t>[-0.253, -0.0587]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.404122832697458e-14</v>
+        <v>0.003367406405063317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>thirdV_log</t>
+          <t>GMV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1010097495231816</v>
+        <v>0.01395210662342783</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.0531, 0.149]</t>
+          <t>[-0.0659, 0.0938]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.499461056512314e-05</v>
+        <v>0.731929128434069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WMV</t>
+          <t>cortical_thickness</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1560038511481446</v>
+        <v>-0.05567708887096652</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.253, -0.0587]</t>
+          <t>[-0.102, -0.00945]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.002693925124050654</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>WBV</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.1331086538399551</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.269, 0.00251]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.07252145281921486</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>GMV</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.01395210662342783</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[-0.0659, 0.0938]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.731929128434069</v>
+        <v>0.02735761331994391</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,7 +920,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5271566153064446</v>
+        <v>0.6589457691330558</v>
       </c>
     </row>
     <row r="3">
@@ -1046,115 +938,79 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.001726240159293671</v>
+        <v>0.002589360238940506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>WBV</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04743630003600445</v>
+        <v>-0.03673464683574172</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.105, 0.0102]</t>
+          <t>[-0.264, 0.19]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2838877077045092</v>
+        <v>0.9015228856680527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LV_log</t>
+          <t>WMV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05096143963535027</v>
+        <v>-0.03402816917532862</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.0459, 0.148]</t>
+          <t>[-0.182, 0.114]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5271566153064446</v>
+        <v>0.9015228856680527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>thirdV_log</t>
+          <t>GMV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1518445170581046</v>
+        <v>-0.00368878629692402</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.233, -0.0708]</t>
+          <t>[-0.159, 0.151]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.001726240159293671</v>
+        <v>0.9628181178558426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WMV</t>
+          <t>cortical_thickness</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03402816917532862</v>
+        <v>0.05531904519865352</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.182, 0.114]</t>
+          <t>[-0.0414, 0.152]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8585932244457645</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>WBV</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.03673464683574172</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.264, 0.19]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8585932244457645</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>GMV</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.00368878629692402</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[-0.159, 0.151]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9628181178558426</v>
+        <v>0.6589457691330558</v>
       </c>
     </row>
   </sheetData>
